--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED5FD1-8C66-2C44-BE83-8BDF7D530EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E0802-43C8-EA4F-985E-17B82ECEA6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="116">
   <si>
     <t>DOI</t>
   </si>
@@ -302,13 +302,79 @@
   </si>
   <si>
     <t>log2 HAI titer</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Titer</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Protein concentration</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Biofluid biochemical concentration</t>
+  </si>
+  <si>
+    <t>Cytokine concentration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +388,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -378,11 +452,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -390,8 +473,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,18 +784,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="168" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="168" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -722,8 +812,23 @@
       <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -739,8 +844,23 @@
       <c r="E2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -756,8 +876,23 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -773,8 +908,23 @@
       <c r="E4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -790,8 +940,23 @@
       <c r="E5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -807,8 +972,23 @@
       <c r="E6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -824,8 +1004,23 @@
       <c r="E7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -841,8 +1036,23 @@
       <c r="E8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -858,8 +1068,23 @@
       <c r="E9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -875,8 +1100,23 @@
       <c r="E10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -892,8 +1132,23 @@
       <c r="E11" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -909,8 +1164,23 @@
       <c r="E12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -926,8 +1196,23 @@
       <c r="E13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -943,8 +1228,23 @@
       <c r="E14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -960,8 +1260,23 @@
       <c r="E15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -977,8 +1292,23 @@
       <c r="E16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -994,8 +1324,23 @@
       <c r="E17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1011,8 +1356,23 @@
       <c r="E18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1028,8 +1388,23 @@
       <c r="E19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1045,8 +1420,23 @@
       <c r="E20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1062,8 +1452,23 @@
       <c r="E21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1079,8 +1484,23 @@
       <c r="E22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1096,8 +1516,23 @@
       <c r="E23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1113,8 +1548,23 @@
       <c r="E24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1130,8 +1580,23 @@
       <c r="E25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1147,8 +1612,23 @@
       <c r="E26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1164,8 +1644,23 @@
       <c r="E27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I27" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1181,8 +1676,23 @@
       <c r="E28" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1198,8 +1708,23 @@
       <c r="E29" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1215,8 +1740,23 @@
       <c r="E30" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1232,8 +1772,23 @@
       <c r="E31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -1249,8 +1804,23 @@
       <c r="E32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1266,8 +1836,23 @@
       <c r="E33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -1283,8 +1868,23 @@
       <c r="E34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1300,8 +1900,23 @@
       <c r="E35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1317,8 +1932,23 @@
       <c r="E36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -1334,8 +1964,23 @@
       <c r="E37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -1351,8 +1996,23 @@
       <c r="E38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1368,8 +2028,23 @@
       <c r="E39" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>27</v>
       </c>
@@ -1385,8 +2060,23 @@
       <c r="E40" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" t="s">
+        <v>101</v>
+      </c>
+      <c r="J40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1402,8 +2092,23 @@
       <c r="E41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I41" t="s">
+        <v>101</v>
+      </c>
+      <c r="J41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -1419,8 +2124,23 @@
       <c r="E42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1436,8 +2156,23 @@
       <c r="E43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>27</v>
       </c>
@@ -1453,8 +2188,23 @@
       <c r="E44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1470,8 +2220,23 @@
       <c r="E45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>100</v>
+      </c>
+      <c r="H45" t="s">
+        <v>101</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>27</v>
       </c>
@@ -1487,8 +2252,23 @@
       <c r="E46" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1504,8 +2284,23 @@
       <c r="E47" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -1521,8 +2316,23 @@
       <c r="E48" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1538,8 +2348,23 @@
       <c r="E49" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" t="s">
+        <v>100</v>
+      </c>
+      <c r="H49" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1555,8 +2380,23 @@
       <c r="E50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H50" t="s">
+        <v>101</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>27</v>
       </c>
@@ -1572,8 +2412,23 @@
       <c r="E51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1589,8 +2444,23 @@
       <c r="E52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>27</v>
       </c>
@@ -1606,8 +2476,23 @@
       <c r="E53" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" t="s">
+        <v>100</v>
+      </c>
+      <c r="H53" t="s">
+        <v>101</v>
+      </c>
+      <c r="I53" t="s">
+        <v>101</v>
+      </c>
+      <c r="J53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>27</v>
       </c>
@@ -1623,8 +2508,23 @@
       <c r="E54" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" t="s">
+        <v>101</v>
+      </c>
+      <c r="J54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>27</v>
       </c>
@@ -1640,8 +2540,23 @@
       <c r="E55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+      <c r="I55" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -1657,8 +2572,23 @@
       <c r="E56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" t="s">
+        <v>101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>27</v>
       </c>
@@ -1674,8 +2604,23 @@
       <c r="E57" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -1691,8 +2636,23 @@
       <c r="E58" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58" t="s">
+        <v>101</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1708,8 +2668,23 @@
       <c r="E59" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
+      <c r="H59" t="s">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>101</v>
+      </c>
+      <c r="J59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>27</v>
       </c>
@@ -1725,8 +2700,23 @@
       <c r="E60" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H60" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>101</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>27</v>
       </c>
@@ -1742,8 +2732,23 @@
       <c r="E61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>100</v>
+      </c>
+      <c r="H61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>101</v>
+      </c>
+      <c r="J61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>27</v>
       </c>
@@ -1759,8 +2764,23 @@
       <c r="E62" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>27</v>
       </c>
@@ -1776,8 +2796,23 @@
       <c r="E63" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" t="s">
+        <v>100</v>
+      </c>
+      <c r="H63" t="s">
+        <v>101</v>
+      </c>
+      <c r="I63" t="s">
+        <v>101</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -1793,8 +2828,23 @@
       <c r="E64" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I64" t="s">
+        <v>101</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -1810,8 +2860,23 @@
       <c r="E65" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>100</v>
+      </c>
+      <c r="H65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -1827,8 +2892,23 @@
       <c r="E66" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -1844,8 +2924,23 @@
       <c r="E67" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G67" t="s">
+        <v>108</v>
+      </c>
+      <c r="H67" t="s">
+        <v>109</v>
+      </c>
+      <c r="I67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -1861,8 +2956,23 @@
       <c r="E68" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" t="s">
+        <v>106</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -1878,8 +2988,23 @@
       <c r="E69" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" t="s">
+        <v>104</v>
+      </c>
+      <c r="H69" t="s">
+        <v>112</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -1895,8 +3020,23 @@
       <c r="E70" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>112</v>
+      </c>
+      <c r="I70" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -1912,8 +3052,23 @@
       <c r="E71" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>103</v>
+      </c>
+      <c r="G71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" t="s">
+        <v>112</v>
+      </c>
+      <c r="I71" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -1929,8 +3084,23 @@
       <c r="E72" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" t="s">
+        <v>112</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -1946,8 +3116,23 @@
       <c r="E73" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>99</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
+      <c r="H73" t="s">
+        <v>107</v>
+      </c>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -1963,8 +3148,23 @@
       <c r="E74" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" t="s">
+        <v>107</v>
+      </c>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>47</v>
       </c>
@@ -1980,8 +3180,23 @@
       <c r="E75" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>104</v>
+      </c>
+      <c r="H75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -1997,8 +3212,23 @@
       <c r="E76" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" t="s">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -2014,8 +3244,23 @@
       <c r="E77" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" t="s">
+        <v>105</v>
+      </c>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -2030,6 +3275,21 @@
       </c>
       <c r="E78" t="s">
         <v>93</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E0802-43C8-EA4F-985E-17B82ECEA6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106A5AF-BAD8-1F44-9BDF-8FB193599A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="194">
   <si>
     <t>DOI</t>
   </si>
@@ -368,6 +368,240 @@
   </si>
   <si>
     <t>Cytokine concentration</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10634_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10634_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10634_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10634_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10632_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10632_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10630_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig26</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig25</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig24</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig23</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig22</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig21</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig20</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig19</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig18</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10609_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10603_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10603_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10596_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10596_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10596_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10590_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10589_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10586_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10552_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10527_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10523_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10523_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10517_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10505_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10505_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10504_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1002:btm2.10499_zero_fig1</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
   </si>
 </sst>
 </file>
@@ -784,999 +1018,1089 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="168" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>115</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>104</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>106</v>
       </c>
-      <c r="J3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>103</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>104</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>115</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>106</v>
       </c>
-      <c r="J4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>103</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>115</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>106</v>
       </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>114</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>106</v>
       </c>
-      <c r="J6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>104</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>115</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>106</v>
       </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>99</v>
-      </c>
       <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
         <v>108</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>109</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>110</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
       <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
         <v>108</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>109</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s">
-        <v>99</v>
-      </c>
       <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>110</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>56</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>114</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s">
-        <v>99</v>
-      </c>
       <c r="G12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" t="s">
         <v>104</v>
-      </c>
-      <c r="H12" t="s">
-        <v>107</v>
       </c>
       <c r="I12" t="s">
         <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
-        <v>99</v>
-      </c>
       <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
         <v>104</v>
-      </c>
-      <c r="H14" t="s">
-        <v>107</v>
       </c>
       <c r="I14" t="s">
         <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>59</v>
       </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s">
         <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s">
         <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>61</v>
       </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
         <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
       <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
         <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>107</v>
       </c>
       <c r="I19" t="s">
         <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
       <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
         <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
       </c>
       <c r="I20" t="s">
         <v>107</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
       <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
         <v>108</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>110</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>103</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>104</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>114</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>106</v>
       </c>
-      <c r="J22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="F23" t="s">
-        <v>99</v>
-      </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I24" t="s">
         <v>101</v>
       </c>
       <c r="J24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="F25" t="s">
-        <v>99</v>
-      </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I25" t="s">
         <v>101</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>11</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>69</v>
       </c>
-      <c r="F26" t="s">
-        <v>99</v>
-      </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I26" t="s">
         <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" t="s">
         <v>101</v>
       </c>
       <c r="J27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>16</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>71</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>103</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>104</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>114</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>106</v>
       </c>
-      <c r="J28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>72</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>103</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>104</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>114</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>106</v>
       </c>
-      <c r="J29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>71</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>103</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>114</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>106</v>
       </c>
-      <c r="J30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H31" t="s">
         <v>113</v>
@@ -1785,222 +2109,243 @@
         <v>113</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="F32" t="s">
-        <v>99</v>
-      </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
         <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>75</v>
       </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
         <v>101</v>
       </c>
       <c r="J33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
         <v>25</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>76</v>
       </c>
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" t="s">
         <v>101</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
         <v>25</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>77</v>
       </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I35" t="s">
         <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>78</v>
       </c>
-      <c r="F36" t="s">
-        <v>99</v>
-      </c>
       <c r="G36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" t="s">
         <v>108</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>109</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>110</v>
       </c>
-      <c r="J36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>79</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>103</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>104</v>
-      </c>
-      <c r="H37" t="s">
-        <v>111</v>
       </c>
       <c r="I37" t="s">
         <v>111</v>
       </c>
       <c r="J37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>80</v>
       </c>
-      <c r="F38" t="s">
-        <v>99</v>
-      </c>
       <c r="G38" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H38" t="s">
         <v>113</v>
@@ -2009,862 +2354,943 @@
         <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>81</v>
       </c>
-      <c r="F39" t="s">
-        <v>99</v>
-      </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
         <v>101</v>
       </c>
       <c r="J39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" t="s">
         <v>27</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>28</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>81</v>
       </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>101</v>
       </c>
       <c r="J40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>29</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>82</v>
       </c>
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
         <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>30</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>82</v>
       </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I42" t="s">
         <v>101</v>
       </c>
       <c r="J42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" t="s">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" t="s">
-        <v>99</v>
-      </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I43" t="s">
         <v>101</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>82</v>
       </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
         <v>101</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>82</v>
       </c>
-      <c r="F45" t="s">
-        <v>99</v>
-      </c>
       <c r="G45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
         <v>101</v>
       </c>
       <c r="J45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
         <v>27</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>83</v>
       </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
       <c r="G46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
         <v>101</v>
       </c>
       <c r="J46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
         <v>27</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>83</v>
       </c>
-      <c r="F47" t="s">
-        <v>99</v>
-      </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
         <v>101</v>
       </c>
       <c r="J47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>83</v>
       </c>
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I48" t="s">
         <v>101</v>
       </c>
       <c r="J48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>83</v>
       </c>
-      <c r="F49" t="s">
-        <v>99</v>
-      </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
         <v>101</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>81</v>
       </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
         <v>101</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s">
         <v>27</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>84</v>
       </c>
-      <c r="F51" t="s">
-        <v>99</v>
-      </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I51" t="s">
         <v>101</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="s">
         <v>27</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>39</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>84</v>
       </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I52" t="s">
         <v>101</v>
       </c>
       <c r="J52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="K52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>84</v>
       </c>
-      <c r="F53" t="s">
-        <v>99</v>
-      </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I53" t="s">
         <v>101</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>41</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>84</v>
       </c>
-      <c r="F54" t="s">
-        <v>99</v>
-      </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I54" t="s">
         <v>101</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>42</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>84</v>
       </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I55" t="s">
         <v>101</v>
       </c>
       <c r="J55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="K55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>43</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>84</v>
       </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
       <c r="G56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I56" t="s">
         <v>101</v>
       </c>
       <c r="J56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="K56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>44</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>85</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>103</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>104</v>
-      </c>
-      <c r="H57" t="s">
-        <v>111</v>
       </c>
       <c r="I57" t="s">
         <v>111</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="K57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
         <v>27</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>9</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>81</v>
       </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
       <c r="G58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I58" t="s">
         <v>101</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="K58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>10</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>81</v>
       </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I59" t="s">
         <v>101</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" t="s">
         <v>27</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>11</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>81</v>
       </c>
-      <c r="F60" t="s">
-        <v>99</v>
-      </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I60" t="s">
         <v>101</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="K60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
         <v>27</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>81</v>
       </c>
-      <c r="F61" t="s">
-        <v>99</v>
-      </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I61" t="s">
         <v>101</v>
       </c>
       <c r="J61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>81</v>
       </c>
-      <c r="F62" t="s">
-        <v>99</v>
-      </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I62" t="s">
         <v>101</v>
       </c>
       <c r="J62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="K62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
         <v>27</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>17</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>81</v>
       </c>
-      <c r="F63" t="s">
-        <v>99</v>
-      </c>
       <c r="G63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I63" t="s">
         <v>101</v>
       </c>
       <c r="J63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="K63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
         <v>27</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>21</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>81</v>
       </c>
-      <c r="F64" t="s">
-        <v>99</v>
-      </c>
       <c r="G64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I64" t="s">
         <v>101</v>
       </c>
       <c r="J64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="K64" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>86</v>
       </c>
-      <c r="F65" t="s">
-        <v>99</v>
-      </c>
       <c r="G65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H65" t="s">
         <v>100</v>
@@ -2873,422 +3299,464 @@
         <v>100</v>
       </c>
       <c r="J65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>87</v>
       </c>
-      <c r="F66" t="s">
-        <v>99</v>
-      </c>
       <c r="G66" t="s">
+        <v>99</v>
+      </c>
+      <c r="H66" t="s">
         <v>108</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>109</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>110</v>
       </c>
-      <c r="J66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
         <v>45</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>87</v>
       </c>
-      <c r="F67" t="s">
-        <v>99</v>
-      </c>
       <c r="G67" t="s">
+        <v>99</v>
+      </c>
+      <c r="H67" t="s">
         <v>108</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>109</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>110</v>
       </c>
-      <c r="J67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
         <v>45</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>10</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>88</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>103</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>104</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>112</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>106</v>
       </c>
-      <c r="J68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>11</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>89</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>103</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>104</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>112</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>106</v>
       </c>
-      <c r="J69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>90</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>103</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>104</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>112</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>106</v>
       </c>
-      <c r="J70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="K70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" t="s">
         <v>45</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>89</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>103</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>104</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>112</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>106</v>
       </c>
-      <c r="J71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="K71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
         <v>45</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>17</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>90</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>103</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>104</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>112</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>106</v>
       </c>
-      <c r="J72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="K72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
         <v>46</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>91</v>
       </c>
-      <c r="F73" t="s">
-        <v>99</v>
-      </c>
       <c r="G73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" t="s">
         <v>104</v>
-      </c>
-      <c r="H73" t="s">
-        <v>107</v>
       </c>
       <c r="I73" t="s">
         <v>107</v>
       </c>
       <c r="J73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>107</v>
+      </c>
+      <c r="K73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>92</v>
       </c>
-      <c r="F74" t="s">
-        <v>99</v>
-      </c>
       <c r="G74" t="s">
+        <v>99</v>
+      </c>
+      <c r="H74" t="s">
         <v>104</v>
-      </c>
-      <c r="H74" t="s">
-        <v>107</v>
       </c>
       <c r="I74" t="s">
         <v>107</v>
       </c>
       <c r="J74" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="K74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>93</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>103</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>104</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>105</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>106</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" t="s">
         <v>47</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>93</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>103</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>104</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>105</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>106</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" t="s">
         <v>47</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>93</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>103</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>104</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>105</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>106</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
         <v>47</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>10</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>93</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>103</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>104</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>105</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>106</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C106A5AF-BAD8-1F44-9BDF-8FB193599A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D147A1-AD5B-7246-B50C-F845713F5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,14 +1020,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="168" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="168" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D147A1-AD5B-7246-B50C-F845713F5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C815E-E7BE-BD4C-85DC-EE40F1FFE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" zoomScale="168" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="168" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1303,10 +1303,10 @@
         <v>108</v>
       </c>
       <c r="I8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" t="s">
         <v>109</v>
-      </c>
-      <c r="J8" t="s">
-        <v>110</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1338,10 +1338,10 @@
         <v>108</v>
       </c>
       <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
         <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1373,10 +1373,10 @@
         <v>108</v>
       </c>
       <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
         <v>109</v>
-      </c>
-      <c r="J10" t="s">
-        <v>110</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1758,10 +1758,10 @@
         <v>108</v>
       </c>
       <c r="I21" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
         <v>109</v>
-      </c>
-      <c r="J21" t="s">
-        <v>110</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2283,10 +2283,10 @@
         <v>108</v>
       </c>
       <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" t="s">
         <v>109</v>
-      </c>
-      <c r="J36" t="s">
-        <v>110</v>
       </c>
       <c r="K36" t="s">
         <v>102</v>
@@ -3333,10 +3333,10 @@
         <v>108</v>
       </c>
       <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
         <v>109</v>
-      </c>
-      <c r="J66" t="s">
-        <v>110</v>
       </c>
       <c r="K66" t="s">
         <v>102</v>
@@ -3368,10 +3368,10 @@
         <v>108</v>
       </c>
       <c r="I67" t="s">
+        <v>110</v>
+      </c>
+      <c r="J67" t="s">
         <v>109</v>
-      </c>
-      <c r="J67" t="s">
-        <v>110</v>
       </c>
       <c r="K67" t="s">
         <v>102</v>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C815E-E7BE-BD4C-85DC-EE40F1FFE8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E2A47-CA32-D241-A265-959FFF0E1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="191">
   <si>
     <t>DOI</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -358,13 +355,7 @@
     <t>Length</t>
   </si>
   <si>
-    <t>Protein concentration</t>
-  </si>
-  <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Biofluid biochemical concentration</t>
   </si>
   <si>
     <t>Cytokine concentration</t>
@@ -1020,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="168" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66:J67"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1069,7 +1060,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1087,24 +1078,24 @@
         <v>49</v>
       </c>
       <c r="G2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" t="s">
-        <v>104</v>
-      </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1122,24 +1113,24 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" t="s">
-        <v>104</v>
-      </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1157,24 +1148,24 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" t="s">
         <v>103</v>
       </c>
-      <c r="H4" t="s">
-        <v>104</v>
-      </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1192,24 +1183,24 @@
         <v>49</v>
       </c>
       <c r="G5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
-        <v>104</v>
-      </c>
       <c r="I5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1227,24 +1218,24 @@
         <v>54</v>
       </c>
       <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
         <v>103</v>
       </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1262,24 +1253,24 @@
         <v>51</v>
       </c>
       <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" t="s">
-        <v>104</v>
-      </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1300,13 +1291,13 @@
         <v>99</v>
       </c>
       <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
         <v>108</v>
-      </c>
-      <c r="I8" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" t="s">
-        <v>109</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1314,7 +1305,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1335,13 +1326,13 @@
         <v>99</v>
       </c>
       <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
         <v>108</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" t="s">
-        <v>109</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1349,7 +1340,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1370,13 +1361,13 @@
         <v>99</v>
       </c>
       <c r="H10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
         <v>108</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1384,7 +1375,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1402,24 +1393,24 @@
         <v>56</v>
       </c>
       <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1440,21 +1431,21 @@
         <v>99</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1478,18 +1469,18 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1510,21 +1501,21 @@
         <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1548,18 +1539,18 @@
         <v>100</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1583,18 +1574,18 @@
         <v>100</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1618,18 +1609,18 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1653,18 +1644,18 @@
         <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1685,21 +1676,21 @@
         <v>99</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1720,21 +1711,21 @@
         <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1755,13 +1746,13 @@
         <v>99</v>
       </c>
       <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
         <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1769,7 +1760,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1787,24 +1778,24 @@
         <v>65</v>
       </c>
       <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1828,18 +1819,18 @@
         <v>100</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1863,18 +1854,18 @@
         <v>100</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1898,18 +1889,18 @@
         <v>100</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1933,18 +1924,18 @@
         <v>100</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1968,18 +1959,18 @@
         <v>100</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1997,24 +1988,24 @@
         <v>71</v>
       </c>
       <c r="G28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" t="s">
         <v>103</v>
       </c>
-      <c r="H28" t="s">
-        <v>104</v>
-      </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2032,24 +2023,24 @@
         <v>72</v>
       </c>
       <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
         <v>103</v>
       </c>
-      <c r="H29" t="s">
-        <v>104</v>
-      </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2067,24 +2058,24 @@
         <v>71</v>
       </c>
       <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="H30" t="s">
-        <v>104</v>
-      </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2105,21 +2096,21 @@
         <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2143,18 +2134,18 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2178,18 +2169,18 @@
         <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2213,18 +2204,18 @@
         <v>100</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2248,18 +2239,18 @@
         <v>100</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2280,21 +2271,21 @@
         <v>99</v>
       </c>
       <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" t="s">
         <v>108</v>
       </c>
-      <c r="I36" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" t="s">
-        <v>109</v>
-      </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2312,24 +2303,24 @@
         <v>79</v>
       </c>
       <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
         <v>103</v>
       </c>
-      <c r="H37" t="s">
-        <v>104</v>
-      </c>
       <c r="I37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -2350,21 +2341,21 @@
         <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -2388,18 +2379,18 @@
         <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2423,18 +2414,18 @@
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -2458,18 +2449,18 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -2493,18 +2484,18 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
@@ -2528,18 +2519,18 @@
         <v>100</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -2563,18 +2554,18 @@
         <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -2598,18 +2589,18 @@
         <v>100</v>
       </c>
       <c r="I45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -2633,18 +2624,18 @@
         <v>100</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
@@ -2668,18 +2659,18 @@
         <v>100</v>
       </c>
       <c r="I47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -2703,18 +2694,18 @@
         <v>100</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -2738,18 +2729,18 @@
         <v>100</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
@@ -2773,18 +2764,18 @@
         <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -2808,18 +2799,18 @@
         <v>100</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -2843,18 +2834,18 @@
         <v>100</v>
       </c>
       <c r="I52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -2878,18 +2869,18 @@
         <v>100</v>
       </c>
       <c r="I53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
@@ -2913,18 +2904,18 @@
         <v>100</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -2948,18 +2939,18 @@
         <v>100</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -2983,18 +2974,18 @@
         <v>100</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -3012,24 +3003,24 @@
         <v>85</v>
       </c>
       <c r="G57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
         <v>103</v>
       </c>
-      <c r="H57" t="s">
-        <v>104</v>
-      </c>
       <c r="I57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -3053,18 +3044,18 @@
         <v>100</v>
       </c>
       <c r="I58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
@@ -3088,18 +3079,18 @@
         <v>100</v>
       </c>
       <c r="I59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -3123,18 +3114,18 @@
         <v>100</v>
       </c>
       <c r="I60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
@@ -3158,18 +3149,18 @@
         <v>100</v>
       </c>
       <c r="I61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
@@ -3193,18 +3184,18 @@
         <v>100</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -3228,18 +3219,18 @@
         <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -3263,18 +3254,18 @@
         <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3304,12 +3295,12 @@
         <v>100</v>
       </c>
       <c r="K65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3330,21 +3321,21 @@
         <v>99</v>
       </c>
       <c r="H66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I66" t="s">
+        <v>109</v>
+      </c>
+      <c r="J66" t="s">
         <v>108</v>
       </c>
-      <c r="I66" t="s">
-        <v>110</v>
-      </c>
-      <c r="J66" t="s">
-        <v>109</v>
-      </c>
       <c r="K66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -3365,21 +3356,21 @@
         <v>99</v>
       </c>
       <c r="H67" t="s">
+        <v>107</v>
+      </c>
+      <c r="I67" t="s">
+        <v>109</v>
+      </c>
+      <c r="J67" t="s">
         <v>108</v>
       </c>
-      <c r="I67" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" t="s">
-        <v>109</v>
-      </c>
       <c r="K67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -3397,24 +3388,24 @@
         <v>88</v>
       </c>
       <c r="G68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" t="s">
         <v>103</v>
       </c>
-      <c r="H68" t="s">
-        <v>104</v>
-      </c>
       <c r="I68" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -3432,24 +3423,24 @@
         <v>89</v>
       </c>
       <c r="G69" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" t="s">
         <v>103</v>
       </c>
-      <c r="H69" t="s">
-        <v>104</v>
-      </c>
       <c r="I69" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -3467,24 +3458,24 @@
         <v>90</v>
       </c>
       <c r="G70" t="s">
+        <v>102</v>
+      </c>
+      <c r="H70" t="s">
         <v>103</v>
       </c>
-      <c r="H70" t="s">
-        <v>104</v>
-      </c>
       <c r="I70" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
@@ -3502,24 +3493,24 @@
         <v>89</v>
       </c>
       <c r="G71" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" t="s">
         <v>103</v>
       </c>
-      <c r="H71" t="s">
-        <v>104</v>
-      </c>
       <c r="I71" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -3537,24 +3528,24 @@
         <v>90</v>
       </c>
       <c r="G72" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" t="s">
         <v>103</v>
       </c>
-      <c r="H72" t="s">
-        <v>104</v>
-      </c>
       <c r="I72" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -3575,21 +3566,21 @@
         <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -3610,21 +3601,21 @@
         <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -3642,16 +3633,16 @@
         <v>93</v>
       </c>
       <c r="G75" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" t="s">
         <v>103</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>104</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>105</v>
-      </c>
-      <c r="J75" t="s">
-        <v>106</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3659,7 +3650,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
         <v>47</v>
@@ -3677,16 +3668,16 @@
         <v>93</v>
       </c>
       <c r="G76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" t="s">
         <v>103</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>104</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>105</v>
-      </c>
-      <c r="J76" t="s">
-        <v>106</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3694,7 +3685,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>47</v>
@@ -3712,16 +3703,16 @@
         <v>93</v>
       </c>
       <c r="G77" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" t="s">
         <v>103</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>104</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>105</v>
-      </c>
-      <c r="J77" t="s">
-        <v>106</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3729,7 +3720,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
         <v>47</v>
@@ -3747,16 +3738,16 @@
         <v>93</v>
       </c>
       <c r="G78" t="s">
+        <v>102</v>
+      </c>
+      <c r="H78" t="s">
         <v>103</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>104</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>105</v>
-      </c>
-      <c r="J78" t="s">
-        <v>106</v>
       </c>
       <c r="K78">
         <v>2</v>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4E2A47-CA32-D241-A265-959FFF0E1C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52F7A9-3F6F-0F4C-9333-1BB74D67763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68:I72"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="138" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1288,16 +1288,16 @@
         <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1323,16 +1323,16 @@
         <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1358,16 +1358,16 @@
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1743,16 +1743,16 @@
         <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>10</v>

--- a/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/bioeng_transl_med/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/bioeng_transl_med/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E52F7A9-3F6F-0F4C-9333-1BB74D67763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301CDE02-64A1-474F-A11E-E2F5D4603220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,9 +166,6 @@
     <t>10.1002:btm2.10634</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>TNF-alpha (pg/mL)</t>
   </si>
   <si>
@@ -310,12 +307,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -593,6 +584,15 @@
   </si>
   <si>
     <t>Fig Index</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="138" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:J21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1025,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1040,27 +1040,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1075,27 +1075,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" t="s">
         <v>102</v>
       </c>
-      <c r="H2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" t="s">
-        <v>105</v>
-      </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1110,27 +1110,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" t="s">
-        <v>105</v>
-      </c>
       <c r="K3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1145,27 +1145,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" t="s">
         <v>102</v>
       </c>
-      <c r="H4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1180,27 +1180,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" t="s">
-        <v>112</v>
-      </c>
-      <c r="J5" t="s">
-        <v>105</v>
-      </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1215,27 +1215,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
         <v>102</v>
       </c>
-      <c r="H6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1250,27 +1250,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
       <c r="K7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1285,19 +1285,19 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1320,19 +1320,19 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
         <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1340,7 +1340,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1355,19 +1355,19 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
         <v>102</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1390,27 +1390,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>105</v>
-      </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1425,27 +1425,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
         <v>103</v>
       </c>
-      <c r="I12" t="s">
-        <v>106</v>
-      </c>
       <c r="J12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1460,27 +1460,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1495,27 +1495,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" t="s">
         <v>103</v>
       </c>
-      <c r="I14" t="s">
-        <v>106</v>
-      </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1530,27 +1530,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1565,27 +1565,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1600,27 +1600,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1635,27 +1635,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1670,27 +1670,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
         <v>103</v>
       </c>
-      <c r="I19" t="s">
-        <v>106</v>
-      </c>
       <c r="J19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
@@ -1705,27 +1705,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="s">
         <v>103</v>
       </c>
-      <c r="I20" t="s">
-        <v>106</v>
-      </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1740,19 +1740,19 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
         <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" t="s">
-        <v>104</v>
-      </c>
-      <c r="J21" t="s">
-        <v>105</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1775,27 +1775,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="H22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
-      </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1810,27 +1810,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1845,27 +1845,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1880,27 +1880,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1915,27 +1915,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1950,27 +1950,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1985,27 +1985,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="s">
         <v>102</v>
       </c>
-      <c r="H28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" t="s">
-        <v>105</v>
-      </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2020,27 +2020,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
         <v>102</v>
       </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" t="s">
-        <v>105</v>
-      </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2055,27 +2055,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" t="s">
+        <v>99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I30" t="s">
         <v>102</v>
       </c>
-      <c r="H30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" t="s">
-        <v>105</v>
-      </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2090,27 +2090,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2125,27 +2125,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -2160,27 +2160,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
@@ -2195,27 +2195,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
@@ -2230,27 +2230,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -2265,27 +2265,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -2300,27 +2300,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -2335,27 +2335,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -2370,27 +2370,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
         <v>27</v>
@@ -2405,27 +2405,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>27</v>
@@ -2440,27 +2440,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J41" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -2475,27 +2475,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
         <v>27</v>
@@ -2510,27 +2510,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
         <v>27</v>
@@ -2545,27 +2545,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
         <v>27</v>
@@ -2580,27 +2580,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
         <v>27</v>
@@ -2615,27 +2615,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B47" t="s">
         <v>27</v>
@@ -2650,27 +2650,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
         <v>27</v>
@@ -2685,27 +2685,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
@@ -2720,27 +2720,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>27</v>
@@ -2755,27 +2755,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s">
         <v>27</v>
@@ -2790,27 +2790,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
         <v>27</v>
@@ -2825,27 +2825,27 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>27</v>
@@ -2860,27 +2860,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
         <v>27</v>
@@ -2895,27 +2895,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -2930,27 +2930,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
         <v>27</v>
@@ -2965,27 +2965,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
         <v>27</v>
@@ -3000,27 +3000,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
         <v>27</v>
@@ -3035,27 +3035,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
         <v>27</v>
@@ -3070,27 +3070,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
         <v>27</v>
@@ -3105,27 +3105,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
@@ -3140,27 +3140,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
         <v>27</v>
@@ -3175,27 +3175,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K62" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
         <v>27</v>
@@ -3210,27 +3210,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
         <v>27</v>
@@ -3245,27 +3245,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
         <v>45</v>
@@ -3280,27 +3280,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
         <v>45</v>
@@ -3315,27 +3315,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -3350,27 +3350,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I67" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J67" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
         <v>45</v>
@@ -3385,27 +3385,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" t="s">
+        <v>100</v>
+      </c>
+      <c r="I68" t="s">
         <v>102</v>
       </c>
-      <c r="H68" t="s">
-        <v>103</v>
-      </c>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
       <c r="J68" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>45</v>
@@ -3420,27 +3420,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
         <v>102</v>
       </c>
-      <c r="H69" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
       <c r="J69" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
         <v>45</v>
@@ -3455,27 +3455,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70" t="s">
+        <v>99</v>
+      </c>
+      <c r="H70" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" t="s">
         <v>102</v>
       </c>
-      <c r="H70" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" t="s">
-        <v>105</v>
-      </c>
       <c r="J70" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
         <v>45</v>
@@ -3490,27 +3490,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s">
+        <v>99</v>
+      </c>
+      <c r="H71" t="s">
+        <v>100</v>
+      </c>
+      <c r="I71" t="s">
         <v>102</v>
       </c>
-      <c r="H71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I71" t="s">
-        <v>105</v>
-      </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K71" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
         <v>45</v>
@@ -3525,27 +3525,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="H72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I72" t="s">
         <v>102</v>
       </c>
-      <c r="H72" t="s">
-        <v>103</v>
-      </c>
-      <c r="I72" t="s">
-        <v>105</v>
-      </c>
       <c r="J72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
@@ -3560,27 +3560,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" t="s">
         <v>103</v>
       </c>
-      <c r="I73" t="s">
-        <v>106</v>
-      </c>
       <c r="J73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
@@ -3595,27 +3595,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H74" t="s">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s">
         <v>103</v>
       </c>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
       <c r="J74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B75" t="s">
         <v>47</v>
@@ -3630,19 +3630,19 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+      <c r="J75" t="s">
         <v>102</v>
-      </c>
-      <c r="H75" t="s">
-        <v>103</v>
-      </c>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-      <c r="J75" t="s">
-        <v>105</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
         <v>47</v>
@@ -3665,19 +3665,19 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
         <v>102</v>
-      </c>
-      <c r="H76" t="s">
-        <v>103</v>
-      </c>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-      <c r="J76" t="s">
-        <v>105</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
         <v>47</v>
@@ -3700,19 +3700,19 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G77" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+      <c r="J77" t="s">
         <v>102</v>
-      </c>
-      <c r="H77" t="s">
-        <v>103</v>
-      </c>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-      <c r="J77" t="s">
-        <v>105</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
         <v>47</v>
@@ -3735,19 +3735,19 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G78" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+      <c r="J78" t="s">
         <v>102</v>
-      </c>
-      <c r="H78" t="s">
-        <v>103</v>
-      </c>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-      <c r="J78" t="s">
-        <v>105</v>
       </c>
       <c r="K78">
         <v>2</v>
